--- a/resources/AP1/Notes_ApresRat.xlsx
+++ b/resources/AP1/Notes_ApresRat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBAE5C4-BF71-4F16-9895-8710DF25D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6F9172-BC88-4F49-98D0-DA00BAC97542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B1B90164-4942-412C-B8F7-B03A938FB1C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1B90164-4942-412C-B8F7-B03A938FB1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -45,33 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Note_AP21</t>
-  </si>
-  <si>
-    <t>Note_AP22</t>
-  </si>
-  <si>
-    <t>Note_AP23</t>
-  </si>
-  <si>
-    <t>Note_AP24</t>
-  </si>
-  <si>
-    <t>Note_AP25</t>
-  </si>
-  <si>
-    <t>Note_AP26</t>
-  </si>
-  <si>
-    <t>Note_AP27</t>
-  </si>
-  <si>
-    <t>Note_AP28</t>
-  </si>
-  <si>
-    <t>Note_AP29</t>
-  </si>
-  <si>
     <t>AP1_LN1</t>
   </si>
   <si>
@@ -130,16 +101,49 @@
   </si>
   <si>
     <t>AP1_FN10</t>
+  </si>
+  <si>
+    <t>Note_AP11</t>
+  </si>
+  <si>
+    <t>Note_AP12</t>
+  </si>
+  <si>
+    <t>Note_AP13</t>
+  </si>
+  <si>
+    <t>Note_AP14</t>
+  </si>
+  <si>
+    <t>Note_AP15</t>
+  </si>
+  <si>
+    <t>Note_AP16</t>
+  </si>
+  <si>
+    <t>Note_AP17</t>
+  </si>
+  <si>
+    <t>Note_AP18</t>
+  </si>
+  <si>
+    <t>Note_AP19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,58 +504,58 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>21000001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>12.34</v>
@@ -581,16 +585,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>2101</v>
+        <v>21000002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -620,16 +624,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
-        <v>2102</v>
+        <v>21000003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>13.06</v>
@@ -659,16 +663,16 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>2103</v>
+        <v>21000004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>18.62</v>
@@ -698,16 +702,16 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>2104</v>
+        <v>21000005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>14.54</v>
@@ -737,16 +741,16 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>2105</v>
+        <v>21000006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -776,16 +780,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>2106</v>
+        <v>21000007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>16.170000000000002</v>
@@ -815,16 +819,16 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>2107</v>
+        <v>21000008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>14.55</v>
@@ -854,16 +858,16 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>2108</v>
+        <v>21000009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -893,16 +897,16 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ref="A11" si="1">$A10+1</f>
-        <v>2109</v>
+        <v>21000010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -933,6 +937,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>